--- a/NodeCount.xlsx
+++ b/NodeCount.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="NodeCountCanBeEstimated" sheetId="1" r:id="rId1"/>
+    <sheet name="NodeCount" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
+  <si>
+    <t>BitSize: 512, GroupSize: 8, SampleCount: 12</t>
   </si>
   <si>
     <t>(7 items)</t>
@@ -31,295 +31,469 @@
     <t>ErrorPercentage</t>
   </si>
   <si>
+    <t>StandardDeviation</t>
+  </si>
+  <si>
+    <t>EstimatedNodeCount2</t>
+  </si>
+  <si>
+    <t>ErrorPercentage2</t>
+  </si>
+  <si>
     <t>  1 000</t>
   </si>
   <si>
-    <t>    891</t>
+    <t>  1 542</t>
+  </si>
+  <si>
+    <t> 54,19</t>
+  </si>
+  <si>
+    <t>   797</t>
+  </si>
+  <si>
+    <t>  1 303</t>
+  </si>
+  <si>
+    <t> 30,28</t>
   </si>
   <si>
     <t>  2 154</t>
   </si>
   <si>
-    <t>  2 156</t>
-  </si>
-  <si>
-    <t>  0,09</t>
+    <t>  3 037</t>
+  </si>
+  <si>
+    <t> 41,00</t>
+  </si>
+  <si>
+    <t> 1 364</t>
+  </si>
+  <si>
+    <t>  2 628</t>
+  </si>
+  <si>
+    <t> 22,00</t>
   </si>
   <si>
     <t>  4 642</t>
   </si>
   <si>
-    <t>  4 891</t>
-  </si>
-  <si>
-    <t>  5,36</t>
+    <t>  5 667</t>
+  </si>
+  <si>
+    <t> 22,08</t>
+  </si>
+  <si>
+    <t> 1 895</t>
+  </si>
+  <si>
+    <t>  5 099</t>
+  </si>
+  <si>
+    <t>  9,84</t>
   </si>
   <si>
     <t> 10 000</t>
   </si>
   <si>
-    <t>  9 004</t>
-  </si>
-  <si>
-    <t> -9,96</t>
+    <t> 12 766</t>
+  </si>
+  <si>
+    <t> 27,66</t>
+  </si>
+  <si>
+    <t> 5 522</t>
+  </si>
+  <si>
+    <t> 11 110</t>
+  </si>
+  <si>
+    <t> 11,10</t>
   </si>
   <si>
     <t> 21 544</t>
   </si>
   <si>
-    <t> 23 589</t>
-  </si>
-  <si>
-    <t>  9,49</t>
+    <t> 30 126</t>
+  </si>
+  <si>
+    <t> 39,84</t>
+  </si>
+  <si>
+    <t>18 047</t>
+  </si>
+  <si>
+    <t> 24 712</t>
+  </si>
+  <si>
+    <t> 14,70</t>
   </si>
   <si>
     <t> 46 416</t>
   </si>
   <si>
-    <t> 51 039</t>
-  </si>
-  <si>
-    <t>  9,96</t>
+    <t> 66 052</t>
+  </si>
+  <si>
+    <t> 42,30</t>
+  </si>
+  <si>
+    <t>31 857</t>
+  </si>
+  <si>
+    <t> 56 495</t>
+  </si>
+  <si>
+    <t> 21,71</t>
   </si>
   <si>
     <t>100 000</t>
   </si>
   <si>
-    <t>107 851</t>
-  </si>
-  <si>
-    <t>  7,85</t>
-  </si>
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 2</t>
-  </si>
-  <si>
-    <t>    984</t>
-  </si>
-  <si>
-    <t> -1,60</t>
-  </si>
-  <si>
-    <t>  2 235</t>
-  </si>
-  <si>
-    <t>  3,76</t>
-  </si>
-  <si>
-    <t>  4 822</t>
-  </si>
-  <si>
-    <t>  3,88</t>
-  </si>
-  <si>
-    <t>  9 537</t>
-  </si>
-  <si>
-    <t> -4,63</t>
-  </si>
-  <si>
-    <t> 23 053</t>
-  </si>
-  <si>
-    <t>  7,00</t>
-  </si>
-  <si>
-    <t> 47 812</t>
-  </si>
-  <si>
-    <t>  3,01</t>
-  </si>
-  <si>
-    <t>100 306</t>
-  </si>
-  <si>
-    <t>  0,31</t>
-  </si>
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 4</t>
-  </si>
-  <si>
-    <t>  1 054</t>
-  </si>
-  <si>
-    <t>  5,40</t>
-  </si>
-  <si>
-    <t>  2 331</t>
-  </si>
-  <si>
-    <t>  8,22</t>
-  </si>
-  <si>
-    <t>  4 992</t>
-  </si>
-  <si>
-    <t>  7,54</t>
-  </si>
-  <si>
-    <t> 10 247</t>
-  </si>
-  <si>
-    <t>  2,47</t>
-  </si>
-  <si>
-    <t> 23 346</t>
-  </si>
-  <si>
-    <t>  8,36</t>
-  </si>
-  <si>
-    <t> 47 244</t>
-  </si>
-  <si>
-    <t>  1,78</t>
-  </si>
-  <si>
-    <t>101 387</t>
-  </si>
-  <si>
-    <t>  1,39</t>
-  </si>
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 9</t>
-  </si>
-  <si>
-    <t>  1 039</t>
-  </si>
-  <si>
-    <t>  3,90</t>
-  </si>
-  <si>
-    <t>  2 288</t>
-  </si>
-  <si>
-    <t>  6,22</t>
-  </si>
-  <si>
-    <t>  4 755</t>
-  </si>
-  <si>
-    <t>  2,43</t>
-  </si>
-  <si>
-    <t> 10 076</t>
-  </si>
-  <si>
-    <t>  0,76</t>
-  </si>
-  <si>
-    <t> 24 500</t>
-  </si>
-  <si>
-    <t> 13,72</t>
-  </si>
-  <si>
-    <t> 49 573</t>
-  </si>
-  <si>
-    <t>  6,80</t>
-  </si>
-  <si>
-    <t>107 205</t>
-  </si>
-  <si>
-    <t>  7,21</t>
-  </si>
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 20</t>
-  </si>
-  <si>
-    <t>    995</t>
-  </si>
-  <si>
-    <t> -0,50</t>
-  </si>
-  <si>
-    <t>  2 236</t>
-  </si>
-  <si>
-    <t>  3,81</t>
-  </si>
-  <si>
-    <t>  4 597</t>
-  </si>
-  <si>
-    <t> -0,97</t>
-  </si>
-  <si>
-    <t> 10 008</t>
-  </si>
-  <si>
-    <t>  0,08</t>
-  </si>
-  <si>
-    <t> 22 475</t>
-  </si>
-  <si>
-    <t>  4,32</t>
-  </si>
-  <si>
-    <t> 48 104</t>
-  </si>
-  <si>
-    <t>  3,64</t>
-  </si>
-  <si>
-    <t>102 969</t>
-  </si>
-  <si>
-    <t>  2,97</t>
-  </si>
-  <si>
-    <t>BitSize: 512, ProximityCount: 64, SampleCount: 41</t>
-  </si>
-  <si>
-    <t>  1 002</t>
-  </si>
-  <si>
-    <t>  0,20</t>
-  </si>
-  <si>
-    <t>  2 204</t>
-  </si>
-  <si>
-    <t>  2,32</t>
-  </si>
-  <si>
-    <t>  4 684</t>
-  </si>
-  <si>
-    <t>  0,90</t>
-  </si>
-  <si>
-    <t> 10 074</t>
-  </si>
-  <si>
-    <t>  0,74</t>
-  </si>
-  <si>
-    <t> 22 439</t>
-  </si>
-  <si>
-    <t>  4,15</t>
-  </si>
-  <si>
-    <t> 48 645</t>
-  </si>
-  <si>
-    <t>  4,80</t>
-  </si>
-  <si>
-    <t>102 681</t>
-  </si>
-  <si>
-    <t>  2,68</t>
+    <t>132 908</t>
+  </si>
+  <si>
+    <t> 32,91</t>
+  </si>
+  <si>
+    <t>46 974</t>
+  </si>
+  <si>
+    <t>118 816</t>
+  </si>
+  <si>
+    <t> 18,82</t>
+  </si>
+  <si>
+    <t>BitSize: 512, GroupSize: 8, SampleCount: 24</t>
+  </si>
+  <si>
+    <t>  1 371</t>
+  </si>
+  <si>
+    <t> 37,10</t>
+  </si>
+  <si>
+    <t>   801</t>
+  </si>
+  <si>
+    <t>  1 131</t>
+  </si>
+  <si>
+    <t> 13,06</t>
+  </si>
+  <si>
+    <t>  2 697</t>
+  </si>
+  <si>
+    <t> 25,23</t>
+  </si>
+  <si>
+    <t> 1 163</t>
+  </si>
+  <si>
+    <t>  2 348</t>
+  </si>
+  <si>
+    <t>  9,03</t>
+  </si>
+  <si>
+    <t>  5 282</t>
+  </si>
+  <si>
+    <t> 13,79</t>
+  </si>
+  <si>
+    <t> 2 253</t>
+  </si>
+  <si>
+    <t>  4 606</t>
+  </si>
+  <si>
+    <t> -0,77</t>
+  </si>
+  <si>
+    <t> 11 447</t>
+  </si>
+  <si>
+    <t> 14,47</t>
+  </si>
+  <si>
+    <t> 5 102</t>
+  </si>
+  <si>
+    <t>  9 917</t>
+  </si>
+  <si>
+    <t> -0,83</t>
+  </si>
+  <si>
+    <t> 26 236</t>
+  </si>
+  <si>
+    <t> 21,78</t>
+  </si>
+  <si>
+    <t>14 160</t>
+  </si>
+  <si>
+    <t> 21 988</t>
+  </si>
+  <si>
+    <t>  2,06</t>
+  </si>
+  <si>
+    <t> 55 722</t>
+  </si>
+  <si>
+    <t> 20,05</t>
+  </si>
+  <si>
+    <t>27 126</t>
+  </si>
+  <si>
+    <t> 47 584</t>
+  </si>
+  <si>
+    <t>  2,52</t>
+  </si>
+  <si>
+    <t>111 541</t>
+  </si>
+  <si>
+    <t> 11,54</t>
+  </si>
+  <si>
+    <t>45 295</t>
+  </si>
+  <si>
+    <t> 97 952</t>
+  </si>
+  <si>
+    <t> -2,05</t>
+  </si>
+  <si>
+    <t>BitSize: 512, GroupSize: 8, SampleCount: 36</t>
+  </si>
+  <si>
+    <t>  1 282</t>
+  </si>
+  <si>
+    <t> 28,20</t>
+  </si>
+  <si>
+    <t>   702</t>
+  </si>
+  <si>
+    <t>  1 071</t>
+  </si>
+  <si>
+    <t>  7,14</t>
+  </si>
+  <si>
+    <t>  2 718</t>
+  </si>
+  <si>
+    <t> 26,18</t>
+  </si>
+  <si>
+    <t> 1 053</t>
+  </si>
+  <si>
+    <t>  2 402</t>
+  </si>
+  <si>
+    <t> 11,51</t>
+  </si>
+  <si>
+    <t>  5 255</t>
+  </si>
+  <si>
+    <t> 13,21</t>
+  </si>
+  <si>
+    <t> 2 022</t>
+  </si>
+  <si>
+    <t>  4 649</t>
+  </si>
+  <si>
+    <t>  0,15</t>
+  </si>
+  <si>
+    <t> 11 186</t>
+  </si>
+  <si>
+    <t> 11,86</t>
+  </si>
+  <si>
+    <t> 4 392</t>
+  </si>
+  <si>
+    <t>  9 869</t>
+  </si>
+  <si>
+    <t> -1,31</t>
+  </si>
+  <si>
+    <t> 25 163</t>
+  </si>
+  <si>
+    <t> 16,80</t>
+  </si>
+  <si>
+    <t>12 228</t>
+  </si>
+  <si>
+    <t> 21 494</t>
+  </si>
+  <si>
+    <t> -0,23</t>
+  </si>
+  <si>
+    <t> 52 856</t>
+  </si>
+  <si>
+    <t> 13,87</t>
+  </si>
+  <si>
+    <t>24 386</t>
+  </si>
+  <si>
+    <t> 45 540</t>
+  </si>
+  <si>
+    <t> -1,89</t>
+  </si>
+  <si>
+    <t>117 800</t>
+  </si>
+  <si>
+    <t> 17,80</t>
+  </si>
+  <si>
+    <t>47 022</t>
+  </si>
+  <si>
+    <t>103 694</t>
+  </si>
+  <si>
+    <t>  3,69</t>
+  </si>
+  <si>
+    <t>BitSize: 512, GroupSize: 8, SampleCount: 48</t>
+  </si>
+  <si>
+    <t>  1 223</t>
+  </si>
+  <si>
+    <t> 22,28</t>
+  </si>
+  <si>
+    <t>   647</t>
+  </si>
+  <si>
+    <t>  1 029</t>
+  </si>
+  <si>
+    <t>  2,86</t>
+  </si>
+  <si>
+    <t>  2 558</t>
+  </si>
+  <si>
+    <t> 18,77</t>
+  </si>
+  <si>
+    <t> 1 000</t>
+  </si>
+  <si>
+    <t>  2 258</t>
+  </si>
+  <si>
+    <t>  4,85</t>
+  </si>
+  <si>
+    <t>  5 242</t>
+  </si>
+  <si>
+    <t> 12,93</t>
+  </si>
+  <si>
+    <t> 1 822</t>
+  </si>
+  <si>
+    <t>  4 695</t>
+  </si>
+  <si>
+    <t>  1,15</t>
+  </si>
+  <si>
+    <t> 11 417</t>
+  </si>
+  <si>
+    <t> 14,17</t>
+  </si>
+  <si>
+    <t> 4 269</t>
+  </si>
+  <si>
+    <t> 10 137</t>
+  </si>
+  <si>
+    <t>  1,37</t>
+  </si>
+  <si>
+    <t> 24 998</t>
+  </si>
+  <si>
+    <t> 16,03</t>
+  </si>
+  <si>
+    <t>11 040</t>
+  </si>
+  <si>
+    <t> 21 686</t>
+  </si>
+  <si>
+    <t>  0,66</t>
+  </si>
+  <si>
+    <t> 51 465</t>
+  </si>
+  <si>
+    <t> 10,88</t>
+  </si>
+  <si>
+    <t>23 030</t>
+  </si>
+  <si>
+    <t> 44 556</t>
+  </si>
+  <si>
+    <t> -4,01</t>
+  </si>
+  <si>
+    <t>114 157</t>
+  </si>
+  <si>
+    <t> 14,16</t>
+  </si>
+  <si>
+    <t>42 796</t>
+  </si>
+  <si>
+    <t>101 319</t>
+  </si>
+  <si>
+    <t>  1,32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,11 +978,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF1177BB"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF1177BB"/>
       </top>
       <bottom/>
@@ -817,7 +991,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF1177BB"/>
       </top>
       <bottom/>
@@ -825,17 +999,17 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF1177BB"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF1177BB"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF1177BB"/>
       </left>
       <right/>
@@ -845,7 +1019,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF1177BB"/>
       </right>
       <top/>
@@ -853,12 +1027,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF1177BB"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FF1177BB"/>
       </bottom>
       <diagonal/>
@@ -867,18 +1041,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FF1177BB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF1177BB"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FF1177BB"/>
       </bottom>
       <diagonal/>
@@ -928,45 +1102,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -997,11 +1178,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1072,9 +1253,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1102,14 +1283,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1137,6 +1335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1289,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C67"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1300,623 +1515,718 @@
     <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
-        <v>-10.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="8" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+      <c r="B33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+      <c r="E37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A47:C47"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
